--- a/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Date:</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>F.DIA</t>
-  </si>
-  <si>
-    <t>P.QTY</t>
   </si>
   <si>
     <t>Total Order</t>
@@ -441,9 +438,72 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,69 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -853,45 +850,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -915,63 +912,63 @@
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>28</v>
+      <c r="B5" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -982,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>7</v>
@@ -991,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>3</v>
@@ -1005,32 +1002,30 @@
       <c r="M6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="15" t="s">
+      <c r="N6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>44440</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>34</v>
+      <c r="B7" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="13">
         <v>15114</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>35</v>
+      <c r="E7" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="F7" s="8">
         <v>5000</v>
@@ -1051,15 +1046,15 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="14">
+        <v>391</v>
+      </c>
       <c r="O7" s="14">
-        <v>391</v>
-      </c>
-      <c r="P7" s="14">
-        <f>G31-O31</f>
+        <f>G31-N31</f>
         <v>2964</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -1082,12 +1077,12 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14">
+      <c r="N8" s="14">
         <v>1135</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1109,17 +1104,17 @@
         <v>1712</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="8">
         <v>82</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14">
+      <c r="N9" s="14">
         <v>510</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="8"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="8"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
@@ -1138,8 +1133,8 @@
       <c r="M10" s="8"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1160,8 +1155,8 @@
       <c r="M11" s="8"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1182,8 +1177,8 @@
       <c r="M12" s="8"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1204,8 +1199,8 @@
       <c r="M13" s="8"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1226,8 +1221,8 @@
       <c r="M14" s="8"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1248,8 +1243,8 @@
       <c r="M15" s="8"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15"/>
     </row>
     <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1270,8 +1265,8 @@
       <c r="M16" s="8"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1292,8 +1287,8 @@
       <c r="M17" s="8"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1314,8 +1309,8 @@
       <c r="M18" s="8"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1336,8 +1331,8 @@
       <c r="M19" s="8"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1358,8 +1353,8 @@
       <c r="M20" s="8"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1380,8 +1375,8 @@
       <c r="M21" s="8"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1402,8 +1397,8 @@
       <c r="M22" s="8"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1424,8 +1419,8 @@
       <c r="M23" s="8"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1446,8 +1441,8 @@
       <c r="M24" s="8"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1468,8 +1463,8 @@
       <c r="M25" s="8"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25"/>
     </row>
     <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1490,8 +1485,8 @@
       <c r="M26" s="8"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26"/>
     </row>
     <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1512,8 +1507,8 @@
       <c r="M27" s="8"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1531,8 +1526,8 @@
       <c r="M28" s="8"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -1550,8 +1545,8 @@
       <c r="M29" s="8"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29"/>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1570,7 +1565,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="Q30"/>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1578,7 +1573,10 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <f>SUM(F7:F30)</f>
+        <v>5000</v>
+      </c>
       <c r="G31" s="1">
         <f>SUM(G7:G30)</f>
         <v>5000</v>
@@ -1589,35 +1587,39 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <f>SUM(O7:O30)</f>
+      <c r="N31" s="1">
+        <f>SUM(N7:N30)</f>
         <v>2036</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="8"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="8"/>
+      <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45">
+        <f>F31</f>
+        <v>5000</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24">
-        <v>2600</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
+        <f>G31</f>
+        <v>5000</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1631,14 +1633,17 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
+        <f>H31</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1652,14 +1657,17 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33">
+        <f>N31</f>
+        <v>2036</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1673,14 +1681,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="A36" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1694,14 +1702,17 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="A37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33">
+        <f>D35+D34+D36</f>
+        <v>2036</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1715,14 +1726,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="A38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1736,14 +1747,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1757,12 +1768,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1853,51 +1864,31 @@
     </row>
     <row r="45" spans="1:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:J45"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -1908,6 +1899,26 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Date:</t>
   </si>
@@ -827,7 +827,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="O7" s="14">
         <f>G31-N31</f>
-        <v>2964</v>
+        <v>2026</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7"/>
@@ -1127,11 +1127,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="19">
+        <v>44455</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1719</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="14">
+        <v>938</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="8"/>
       <c r="Q10"/>
@@ -1589,7 +1597,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <f>SUM(N7:N30)</f>
-        <v>2036</v>
+        <v>2974</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
@@ -1664,7 +1672,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>N31</f>
-        <v>2036</v>
+        <v>2974</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -1709,7 +1717,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>D35+D34+D36</f>
-        <v>2036</v>
+        <v>2974</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>

--- a/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20055" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="A One Polar" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Date:</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Nowpara, Madhabdi, Narsingdi</t>
-  </si>
-  <si>
-    <t>PG-143583</t>
   </si>
   <si>
     <t>H &amp; M - ASH SWEATER</t>
@@ -444,6 +441,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,51 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,7 +824,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -850,45 +847,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -914,38 +911,38 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
+      <c r="C5" s="9">
+        <v>142327</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>1</v>
@@ -967,8 +964,8 @@
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1018,14 +1015,14 @@
         <v>44440</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="13">
         <v>15114</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8">
         <v>5000</v>
@@ -1104,7 +1101,7 @@
         <v>1712</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="8">
         <v>82</v>
@@ -1134,7 +1131,7 @@
         <v>1719</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="14">
@@ -1604,30 +1601,30 @@
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26">
         <f>F31</f>
         <v>5000</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22">
         <f>G31</f>
         <v>5000</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1641,17 +1638,17 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1665,17 +1662,17 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22">
         <f>N31</f>
         <v>2974</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1689,14 +1686,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1710,17 +1707,17 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22">
         <f>D35+D34+D36</f>
         <v>2974</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1734,14 +1731,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1755,14 +1752,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1776,12 +1773,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1878,25 +1875,45 @@
       <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -1907,26 +1924,6 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-142327.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Date:</t>
   </si>
@@ -441,9 +441,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,63 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,7 +824,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,45 +847,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -911,34 +911,34 @@
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="9">
@@ -964,8 +964,8 @@
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O7" s="14">
         <f>G31-N31</f>
-        <v>2026</v>
+        <v>1381</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7"/>
@@ -1154,11 +1154,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="14"/>
+      <c r="J11" s="19">
+        <v>44460</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1746</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="8">
+        <v>82</v>
+      </c>
+      <c r="N11" s="14">
+        <v>645</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="8"/>
       <c r="Q11"/>
@@ -1594,37 +1604,37 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <f>SUM(N7:N30)</f>
-        <v>2974</v>
+        <v>3619</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26">
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45">
         <f>F31</f>
         <v>5000</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
         <f>G31</f>
         <v>5000</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1638,17 +1648,17 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1662,17 +1672,17 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33">
         <f>N31</f>
-        <v>2974</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+        <v>3619</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1686,14 +1696,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1707,17 +1717,17 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33">
         <f>D35+D34+D36</f>
-        <v>2974</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+        <v>3619</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1731,14 +1741,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1752,14 +1762,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1773,12 +1783,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1875,45 +1885,25 @@
       <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:J45"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -1924,6 +1914,26 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
